--- a/IronBBQ.xlsx
+++ b/IronBBQ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5850" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="Pessoas" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Path, Charles</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Path, Charles:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Path, Charles</author>
@@ -86,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="149">
   <si>
     <t>Charles</t>
   </si>
@@ -542,7 +576,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +625,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1037,7 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1148,7 +1195,6 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1180,6 +1226,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1494,11 +1545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,31 +1586,29 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70">
-        <v>1</v>
-      </c>
-      <c r="C2" s="66">
-        <v>1</v>
-      </c>
-      <c r="D2" s="67">
+      <c r="B2" s="88">
+        <v>2</v>
+      </c>
+      <c r="C2" s="87">
+        <v>2</v>
+      </c>
+      <c r="D2" s="89">
         <f>B2-C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="66">
-        <v>0</v>
-      </c>
-      <c r="G2" s="68">
+      <c r="E2" s="89"/>
+      <c r="F2" s="87">
+        <v>0</v>
+      </c>
+      <c r="G2" s="90">
         <f>(C2+E2)*QuantidadeEValores!$C$37</f>
-        <v>59.255454545454548</v>
-      </c>
-      <c r="H2" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="69">
+        <v>113.35826086956523</v>
+      </c>
+      <c r="H2" s="87"/>
+      <c r="I2" s="91">
         <v>57.86</v>
       </c>
     </row>
@@ -1606,7 +1655,7 @@
       </c>
       <c r="G4" s="68">
         <f>(C4+E4)*QuantidadeEValores!$C$37</f>
-        <v>118.5109090909091</v>
+        <v>113.35826086956523</v>
       </c>
       <c r="H4" s="66" t="s">
         <v>114</v>
@@ -1637,7 +1686,7 @@
       </c>
       <c r="G5" s="68">
         <f>(C5+E5)*QuantidadeEValores!$C$37</f>
-        <v>237.02181818181819</v>
+        <v>226.71652173913046</v>
       </c>
       <c r="H5" s="66" t="s">
         <v>114</v>
@@ -1668,7 +1717,7 @@
       </c>
       <c r="G6" s="48">
         <f>(C6+E6)*QuantidadeEValores!$C$37</f>
-        <v>177.76636363636365</v>
+        <v>170.03739130434784</v>
       </c>
       <c r="I6" s="2">
         <v>220</v>
@@ -1719,7 +1768,7 @@
       </c>
       <c r="G8" s="68">
         <f>(C8+E8)*QuantidadeEValores!$C$37</f>
-        <v>177.76636363636365</v>
+        <v>170.03739130434784</v>
       </c>
       <c r="H8" s="66" t="s">
         <v>114</v>
@@ -1750,7 +1799,7 @@
       </c>
       <c r="G9" s="68">
         <f>(C9+E9)*QuantidadeEValores!$C$37</f>
-        <v>177.76636363636365</v>
+        <v>170.03739130434784</v>
       </c>
       <c r="H9" s="66" t="s">
         <v>114</v>
@@ -1779,7 +1828,7 @@
       </c>
       <c r="G10" s="68">
         <f>(C10+E10)*QuantidadeEValores!$C$37</f>
-        <v>118.5109090909091</v>
+        <v>113.35826086956523</v>
       </c>
       <c r="H10" s="66" t="s">
         <v>114</v>
@@ -1808,7 +1857,7 @@
       </c>
       <c r="G11" s="68">
         <f>(C11+E11)*QuantidadeEValores!$C$37</f>
-        <v>118.5109090909091</v>
+        <v>113.35826086956523</v>
       </c>
       <c r="H11" s="66"/>
       <c r="I11" s="69">
@@ -1857,7 +1906,7 @@
       </c>
       <c r="G13" s="68">
         <f>(C13+E13)*QuantidadeEValores!$C$37</f>
-        <v>118.5109090909091</v>
+        <v>113.35826086956523</v>
       </c>
       <c r="H13" s="66" t="s">
         <v>115</v>
@@ -1889,11 +1938,11 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
@@ -1910,13 +1959,13 @@
       </c>
       <c r="B17" s="1">
         <f>C15+E15</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I17" s="2">
         <f>SUM(I2:I16)</f>
         <v>1665.31</v>
       </c>
-      <c r="J17" s="79">
+      <c r="J17" s="78">
         <f>I17-TotaisGastos!D39</f>
         <v>340.77999999999975</v>
       </c>
@@ -1927,6 +1976,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1952,18 +2002,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="83" t="s">
+      <c r="A1" s="80"/>
+      <c r="B1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="9" t="s">
         <v>20</v>
       </c>
@@ -1972,7 +2022,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
+      <c r="A2" s="81"/>
       <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
@@ -2427,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2459,14 +2509,14 @@
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="52">
         <f>Pessoas!B17</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="29">
         <v>400</v>
       </c>
       <c r="D3" s="30">
         <f>B3*C3/1000</f>
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -2524,7 +2574,7 @@
       </c>
       <c r="C11" s="43">
         <f>D3-D9</f>
-        <v>4.3000000000000007</v>
+        <v>4.6999999999999993</v>
       </c>
       <c r="F11" s="26"/>
     </row>
@@ -2533,24 +2583,24 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="G14" s="85" t="s">
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="G14" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
-      <c r="L14" s="85" t="s">
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="86"/>
+      <c r="L14" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="87"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="86"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="44" t="s">
@@ -2918,7 +2968,7 @@
       <c r="D24" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="70">
         <f>C24*Valores!I9</f>
         <v>57</v>
       </c>
@@ -3079,7 +3129,7 @@
       </c>
       <c r="C37" s="48">
         <f>C36/Pessoas!B17</f>
-        <v>59.255454545454548</v>
+        <v>56.679130434782614</v>
       </c>
     </row>
   </sheetData>
@@ -3098,8 +3148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3117,10 +3167,10 @@
       <c r="B1" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="72">
+      <c r="C1" s="71">
         <v>500</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="72" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3131,10 +3181,10 @@
       <c r="B2" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="71">
         <v>3</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="73"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
@@ -3143,10 +3193,10 @@
       <c r="B3" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="71">
         <v>4</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
@@ -3155,10 +3205,10 @@
       <c r="B4" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="71">
         <v>6.4</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="73"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
@@ -3167,10 +3217,10 @@
       <c r="B5" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="71">
         <v>9</v>
       </c>
-      <c r="D5" s="74"/>
+      <c r="D5" s="73"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
@@ -3179,10 +3229,10 @@
       <c r="B6" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="71">
         <v>1.55</v>
       </c>
-      <c r="D6" s="74"/>
+      <c r="D6" s="73"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
@@ -3191,10 +3241,10 @@
       <c r="B7" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="71">
         <v>9</v>
       </c>
-      <c r="D7" s="74"/>
+      <c r="D7" s="73"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
@@ -3203,10 +3253,10 @@
       <c r="B8" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="71">
         <v>10</v>
       </c>
-      <c r="D8" s="74"/>
+      <c r="D8" s="73"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
@@ -3215,10 +3265,10 @@
       <c r="B9" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="71">
         <v>10</v>
       </c>
-      <c r="D9" s="74"/>
+      <c r="D9" s="73"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
@@ -3227,11 +3277,11 @@
       <c r="B10" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="71">
         <f>18.2+19.18+18.2</f>
         <v>55.58</v>
       </c>
-      <c r="D10" s="74"/>
+      <c r="D10" s="73"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
@@ -3240,11 +3290,11 @@
       <c r="B11" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="71">
         <f>6.19</f>
         <v>6.19</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="73"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
@@ -3253,11 +3303,11 @@
       <c r="B12" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="71">
         <f>3.89+3.89</f>
         <v>7.78</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="73"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
@@ -3266,11 +3316,11 @@
       <c r="B13" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="71">
         <f>6.57</f>
         <v>6.57</v>
       </c>
-      <c r="D13" s="74"/>
+      <c r="D13" s="73"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
@@ -3279,11 +3329,11 @@
       <c r="B14" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="71">
         <f>17.97-5.99</f>
         <v>11.979999999999999</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="73"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
@@ -3292,11 +3342,11 @@
       <c r="B15" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C15" s="71">
         <f>5.99+5.99</f>
         <v>11.98</v>
       </c>
-      <c r="D15" s="74"/>
+      <c r="D15" s="73"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
@@ -3305,11 +3355,11 @@
       <c r="B16" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C16" s="71">
         <f>13.59</f>
         <v>13.59</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="73"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
@@ -3318,11 +3368,11 @@
       <c r="B17" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="72">
+      <c r="C17" s="71">
         <f>7.99+8.49</f>
         <v>16.48</v>
       </c>
-      <c r="D17" s="74"/>
+      <c r="D17" s="73"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
@@ -3331,10 +3381,10 @@
       <c r="B18" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="71">
         <v>1.69</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="73"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
@@ -3343,10 +3393,10 @@
       <c r="B19" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="71">
         <v>1.79</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="73"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
@@ -3355,10 +3405,10 @@
       <c r="B20" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="71">
         <v>1.78</v>
       </c>
-      <c r="D20" s="74"/>
+      <c r="D20" s="73"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
@@ -3367,10 +3417,10 @@
       <c r="B21" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="71">
         <v>4.99</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="73">
         <f>SUM(C1:C21)</f>
         <v>693.35000000000014</v>
       </c>
@@ -3382,10 +3432,10 @@
       <c r="B22" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="75">
+      <c r="C22" s="74">
         <v>9.9600000000000009</v>
       </c>
-      <c r="D22" s="74"/>
+      <c r="D22" s="73"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
@@ -3394,10 +3444,10 @@
       <c r="B23" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="75">
+      <c r="C23" s="74">
         <v>6.24</v>
       </c>
-      <c r="D23" s="74"/>
+      <c r="D23" s="73"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
@@ -3406,10 +3456,10 @@
       <c r="B24" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="74">
         <v>16.440000000000001</v>
       </c>
-      <c r="D24" s="74"/>
+      <c r="D24" s="73"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
@@ -3418,10 +3468,10 @@
       <c r="B25" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="75">
+      <c r="C25" s="74">
         <v>16.440000000000001</v>
       </c>
-      <c r="D25" s="74"/>
+      <c r="D25" s="73"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
@@ -3430,10 +3480,10 @@
       <c r="B26" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="75">
+      <c r="C26" s="74">
         <v>13.3</v>
       </c>
-      <c r="D26" s="74"/>
+      <c r="D26" s="73"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
@@ -3442,10 +3492,10 @@
       <c r="B27" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="75">
+      <c r="C27" s="74">
         <v>17.899999999999999</v>
       </c>
-      <c r="D27" s="74"/>
+      <c r="D27" s="73"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
@@ -3454,139 +3504,139 @@
       <c r="B28" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="75">
+      <c r="C28" s="74">
         <v>75</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="73">
         <f>SUM(C22:C28)</f>
         <v>155.28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="76" t="s">
+      <c r="A29" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="77">
+      <c r="C29" s="76">
         <v>34.57</v>
       </c>
-      <c r="D29" s="74"/>
+      <c r="D29" s="73"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="76" t="s">
+      <c r="A30" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="77">
+      <c r="C30" s="76">
         <v>106.45</v>
       </c>
-      <c r="D30" s="74"/>
+      <c r="D30" s="73"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="76" t="s">
+      <c r="A31" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="77">
+      <c r="C31" s="76">
         <v>57.67</v>
       </c>
-      <c r="D31" s="74"/>
+      <c r="D31" s="73"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="76" t="s">
+      <c r="A32" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="77">
+      <c r="C32" s="76">
         <v>99.15</v>
       </c>
-      <c r="D32" s="74"/>
+      <c r="D32" s="73"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="76" t="s">
+      <c r="A33" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="77">
+      <c r="C33" s="76">
         <v>15</v>
       </c>
-      <c r="D33" s="74"/>
+      <c r="D33" s="73"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="76" t="s">
+      <c r="A34" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="77">
+      <c r="C34" s="76">
         <v>33.979999999999997</v>
       </c>
-      <c r="D34" s="74"/>
+      <c r="D34" s="73"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="76" t="s">
+      <c r="A35" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="77">
+      <c r="C35" s="76">
         <v>39.96</v>
       </c>
-      <c r="D35" s="74"/>
+      <c r="D35" s="73"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="76" t="s">
+      <c r="A36" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="77">
+      <c r="C36" s="76">
         <v>7.5</v>
       </c>
-      <c r="D36" s="74"/>
+      <c r="D36" s="73"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="76" t="s">
+      <c r="A37" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="77">
+      <c r="C37" s="76">
         <v>56.62</v>
       </c>
-      <c r="D37" s="74"/>
+      <c r="D37" s="73"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="76" t="s">
+      <c r="A38" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="77">
+      <c r="C38" s="76">
         <v>25</v>
       </c>
-      <c r="D38" s="80">
+      <c r="D38" s="79">
         <f>SUM(C29:C38)</f>
         <v>475.90000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D39" s="78">
+      <c r="D39" s="77">
         <f>SUM(D1:D38)</f>
         <v>1324.5300000000002</v>
       </c>
